--- a/data/test_case.xlsx
+++ b/data/test_case.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munna\InteliiJ\abcd-GitHub-test-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254CF9FD-AA06-40BC-9DFD-5E7E1D0E9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6CECDE-DF95-449B-8EBF-E93ECBB2DB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Test case ID</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Orangehrm TimeSheets Page validation success</t>
+  </si>
+  <si>
+    <t>TC011</t>
   </si>
 </sst>
 </file>
@@ -598,18 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.77734375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="35.77734375" style="6"/>
+    <col min="1" max="1" width="21.77734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="6"/>
+    <col min="6" max="6" width="39.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="35.77734375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -865,6 +871,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
